--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Grn-Sort1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Grn-Sort1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.83749233333333</v>
+        <v>34.83956433333334</v>
       </c>
       <c r="H2">
-        <v>62.512477</v>
+        <v>104.518693</v>
       </c>
       <c r="I2">
-        <v>0.02059261534406822</v>
+        <v>0.0346702042110416</v>
       </c>
       <c r="J2">
-        <v>0.02059261534406822</v>
+        <v>0.03467020421104159</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.502378</v>
+        <v>1.837384</v>
       </c>
       <c r="N2">
-        <v>1.507134</v>
+        <v>5.512152</v>
       </c>
       <c r="O2">
-        <v>0.0189742916423209</v>
+        <v>0.0635335947613339</v>
       </c>
       <c r="P2">
-        <v>0.0189742916423209</v>
+        <v>0.0635335947613339</v>
       </c>
       <c r="Q2">
-        <v>10.46829772343533</v>
+        <v>64.01365807303735</v>
       </c>
       <c r="R2">
-        <v>94.214679510918</v>
+        <v>576.1229226573361</v>
       </c>
       <c r="S2">
-        <v>0.0003907302892164827</v>
+        <v>0.002202722704637009</v>
       </c>
       <c r="T2">
-        <v>0.0003907302892164828</v>
+        <v>0.002202722704637008</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.83749233333333</v>
+        <v>34.83956433333334</v>
       </c>
       <c r="H3">
-        <v>62.512477</v>
+        <v>104.518693</v>
       </c>
       <c r="I3">
-        <v>0.02059261534406822</v>
+        <v>0.0346702042110416</v>
       </c>
       <c r="J3">
-        <v>0.02059261534406822</v>
+        <v>0.03467020421104159</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.807088</v>
       </c>
       <c r="O3">
-        <v>0.02275060793223323</v>
+        <v>0.02082867030699976</v>
       </c>
       <c r="P3">
-        <v>0.02275060793223323</v>
+        <v>0.02082867030699976</v>
       </c>
       <c r="Q3">
-        <v>12.55172744855289</v>
+        <v>20.98605287733156</v>
       </c>
       <c r="R3">
-        <v>112.965547036976</v>
+        <v>188.874475895984</v>
       </c>
       <c r="S3">
-        <v>0.0004684945179921861</v>
+        <v>0.0007221342529881401</v>
       </c>
       <c r="T3">
-        <v>0.0004684945179921861</v>
+        <v>0.00072213425298814</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.83749233333333</v>
+        <v>34.83956433333334</v>
       </c>
       <c r="H4">
-        <v>62.512477</v>
+        <v>104.518693</v>
       </c>
       <c r="I4">
-        <v>0.02059261534406822</v>
+        <v>0.0346702042110416</v>
       </c>
       <c r="J4">
-        <v>0.02059261534406822</v>
+        <v>0.03467020421104159</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.474800666666667</v>
+        <v>5.528959666666668</v>
       </c>
       <c r="N4">
-        <v>16.424402</v>
+        <v>16.586879</v>
       </c>
       <c r="O4">
-        <v>0.2067774952981744</v>
+        <v>0.1911819646376369</v>
       </c>
       <c r="P4">
-        <v>0.2067774952981744</v>
+        <v>0.1911819646376369</v>
       </c>
       <c r="Q4">
-        <v>114.0811169181949</v>
+        <v>192.6265460032386</v>
       </c>
       <c r="R4">
-        <v>1026.730052263754</v>
+        <v>1733.638914029148</v>
       </c>
       <c r="S4">
-        <v>0.004258089422485179</v>
+        <v>0.006628317755455005</v>
       </c>
       <c r="T4">
-        <v>0.00425808942248518</v>
+        <v>0.006628317755455003</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.83749233333333</v>
+        <v>34.83956433333334</v>
       </c>
       <c r="H5">
-        <v>62.512477</v>
+        <v>104.518693</v>
       </c>
       <c r="I5">
-        <v>0.02059261534406822</v>
+        <v>0.0346702042110416</v>
       </c>
       <c r="J5">
-        <v>0.02059261534406822</v>
+        <v>0.03467020421104159</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.461044333333334</v>
+        <v>3.046454666666667</v>
       </c>
       <c r="N5">
-        <v>22.383133</v>
+        <v>9.139364</v>
       </c>
       <c r="O5">
-        <v>0.281795841252906</v>
+        <v>0.1053411895666744</v>
       </c>
       <c r="P5">
-        <v>0.281795841252906</v>
+        <v>0.1053411895666744</v>
       </c>
       <c r="Q5">
-        <v>155.4694540944934</v>
+        <v>106.1371533479169</v>
       </c>
       <c r="R5">
-        <v>1399.225086850441</v>
+        <v>955.2343801312521</v>
       </c>
       <c r="S5">
-        <v>0.005802913364479204</v>
+        <v>0.003652200554110648</v>
       </c>
       <c r="T5">
-        <v>0.005802913364479204</v>
+        <v>0.003652200554110647</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.83749233333333</v>
+        <v>34.83956433333334</v>
       </c>
       <c r="H6">
-        <v>62.512477</v>
+        <v>104.518693</v>
       </c>
       <c r="I6">
-        <v>0.02059261534406822</v>
+        <v>0.0346702042110416</v>
       </c>
       <c r="J6">
-        <v>0.02059261534406822</v>
+        <v>0.03467020421104159</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.423250333333333</v>
+        <v>9.021246333333332</v>
       </c>
       <c r="N6">
-        <v>22.269751</v>
+        <v>27.063739</v>
       </c>
       <c r="O6">
-        <v>0.2803684014001858</v>
+        <v>0.3119392618985303</v>
       </c>
       <c r="P6">
-        <v>0.2803684014001858</v>
+        <v>0.3119392618985303</v>
       </c>
       <c r="Q6">
-        <v>154.6819219092474</v>
+        <v>314.2962919970141</v>
       </c>
       <c r="R6">
-        <v>1392.137297183227</v>
+        <v>2828.666627973127</v>
       </c>
       <c r="S6">
-        <v>0.005773518644665342</v>
+        <v>0.01081499791146363</v>
       </c>
       <c r="T6">
-        <v>0.005773518644665343</v>
+        <v>0.01081499791146363</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.83749233333333</v>
+        <v>34.83956433333334</v>
       </c>
       <c r="H7">
-        <v>62.512477</v>
+        <v>104.518693</v>
       </c>
       <c r="I7">
-        <v>0.02059261534406822</v>
+        <v>0.0346702042110416</v>
       </c>
       <c r="J7">
-        <v>0.02059261534406822</v>
+        <v>0.03467020421104159</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.012936333333333</v>
+        <v>8.883473666666667</v>
       </c>
       <c r="N7">
-        <v>15.038809</v>
+        <v>26.650421</v>
       </c>
       <c r="O7">
-        <v>0.1893333624741797</v>
+        <v>0.3071753188288246</v>
       </c>
       <c r="P7">
-        <v>0.1893333624741797</v>
+        <v>0.3071753188288246</v>
       </c>
       <c r="Q7">
-        <v>104.4570224133214</v>
+        <v>309.4963523133059</v>
       </c>
       <c r="R7">
-        <v>940.113201719893</v>
+        <v>2785.467170819753</v>
       </c>
       <c r="S7">
-        <v>0.003898869105229823</v>
+        <v>0.01064983103238716</v>
       </c>
       <c r="T7">
-        <v>0.003898869105229823</v>
+        <v>0.01064983103238716</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>92.578022</v>
       </c>
       <c r="I8">
-        <v>0.03049668942666733</v>
+        <v>0.03070932898284809</v>
       </c>
       <c r="J8">
-        <v>0.03049668942666734</v>
+        <v>0.03070932898284808</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.502378</v>
+        <v>1.837384</v>
       </c>
       <c r="N8">
-        <v>1.507134</v>
+        <v>5.512152</v>
       </c>
       <c r="O8">
-        <v>0.0189742916423209</v>
+        <v>0.0635335947613339</v>
       </c>
       <c r="P8">
-        <v>0.0189742916423209</v>
+        <v>0.0635335947613339</v>
       </c>
       <c r="Q8">
-        <v>15.50305384543867</v>
+        <v>56.70045879148267</v>
       </c>
       <c r="R8">
-        <v>139.527484608948</v>
+        <v>510.3041291233441</v>
       </c>
       <c r="S8">
-        <v>0.0005786530793068703</v>
+        <v>0.001951074062988756</v>
       </c>
       <c r="T8">
-        <v>0.0005786530793068703</v>
+        <v>0.001951074062988756</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>92.578022</v>
       </c>
       <c r="I9">
-        <v>0.03049668942666733</v>
+        <v>0.03070932898284809</v>
       </c>
       <c r="J9">
-        <v>0.03049668942666734</v>
+        <v>0.03070932898284808</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.807088</v>
       </c>
       <c r="O9">
-        <v>0.02275060793223323</v>
+        <v>0.02082867030699976</v>
       </c>
       <c r="P9">
-        <v>0.02275060793223323</v>
+        <v>0.02082867030699976</v>
       </c>
       <c r="Q9">
         <v>18.58851473554844</v>
@@ -1013,10 +1013,10 @@
         <v>167.296632619936</v>
       </c>
       <c r="S9">
-        <v>0.000693818224377191</v>
+        <v>0.000639634488732935</v>
       </c>
       <c r="T9">
-        <v>0.0006938182243771911</v>
+        <v>0.000639634488732935</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>92.578022</v>
       </c>
       <c r="I10">
-        <v>0.03049668942666733</v>
+        <v>0.03070932898284809</v>
       </c>
       <c r="J10">
-        <v>0.03049668942666734</v>
+        <v>0.03070932898284808</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.474800666666667</v>
+        <v>5.528959666666668</v>
       </c>
       <c r="N10">
-        <v>16.424402</v>
+        <v>16.586879</v>
       </c>
       <c r="O10">
-        <v>0.2067774952981744</v>
+        <v>0.1911819646376369</v>
       </c>
       <c r="P10">
-        <v>0.2067774952981744</v>
+        <v>0.1911819646376369</v>
       </c>
       <c r="Q10">
-        <v>168.9487388547604</v>
+        <v>170.6200498859265</v>
       </c>
       <c r="R10">
-        <v>1520.538649692844</v>
+        <v>1535.580448973338</v>
       </c>
       <c r="S10">
-        <v>0.006306029054532589</v>
+        <v>0.00587106984764442</v>
       </c>
       <c r="T10">
-        <v>0.00630602905453259</v>
+        <v>0.00587106984764442</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>92.578022</v>
       </c>
       <c r="I11">
-        <v>0.03049668942666733</v>
+        <v>0.03070932898284809</v>
       </c>
       <c r="J11">
-        <v>0.03049668942666734</v>
+        <v>0.03070932898284808</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.461044333333334</v>
+        <v>3.046454666666667</v>
       </c>
       <c r="N11">
-        <v>22.383133</v>
+        <v>9.139364</v>
       </c>
       <c r="O11">
-        <v>0.281795841252906</v>
+        <v>0.1053411895666744</v>
       </c>
       <c r="P11">
-        <v>0.281795841252906</v>
+        <v>0.1053411895666744</v>
       </c>
       <c r="Q11">
-        <v>230.2429088114363</v>
+        <v>94.01158238422312</v>
       </c>
       <c r="R11">
-        <v>2072.186179302926</v>
+        <v>846.1042414580081</v>
       </c>
       <c r="S11">
-        <v>0.008593840252416326</v>
+        <v>0.00323495724584757</v>
       </c>
       <c r="T11">
-        <v>0.008593840252416324</v>
+        <v>0.003234957245847569</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>92.578022</v>
       </c>
       <c r="I12">
-        <v>0.03049668942666733</v>
+        <v>0.03070932898284809</v>
       </c>
       <c r="J12">
-        <v>0.03049668942666734</v>
+        <v>0.03070932898284808</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.423250333333333</v>
+        <v>9.021246333333332</v>
       </c>
       <c r="N12">
-        <v>22.269751</v>
+        <v>27.063739</v>
       </c>
       <c r="O12">
-        <v>0.2803684014001858</v>
+        <v>0.3119392618985303</v>
       </c>
       <c r="P12">
-        <v>0.2803684014001858</v>
+        <v>0.3119392618985303</v>
       </c>
       <c r="Q12">
-        <v>229.0766108902802</v>
+        <v>278.3897138382509</v>
       </c>
       <c r="R12">
-        <v>2061.689498012522</v>
+        <v>2505.507424544258</v>
       </c>
       <c r="S12">
-        <v>0.008550308062552667</v>
+        <v>0.009579445416308776</v>
       </c>
       <c r="T12">
-        <v>0.008550308062552669</v>
+        <v>0.009579445416308776</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>92.578022</v>
       </c>
       <c r="I13">
-        <v>0.03049668942666733</v>
+        <v>0.03070932898284809</v>
       </c>
       <c r="J13">
-        <v>0.03049668942666734</v>
+        <v>0.03070932898284808</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.012936333333333</v>
+        <v>8.883473666666667</v>
       </c>
       <c r="N13">
-        <v>15.038809</v>
+        <v>26.650421</v>
       </c>
       <c r="O13">
-        <v>0.1893333624741797</v>
+        <v>0.3071753188288246</v>
       </c>
       <c r="P13">
-        <v>0.1893333624741797</v>
+        <v>0.3071753188288246</v>
       </c>
       <c r="Q13">
-        <v>154.6959100506442</v>
+        <v>274.1381401830291</v>
       </c>
       <c r="R13">
-        <v>1392.263190455798</v>
+        <v>2467.243261647262</v>
       </c>
       <c r="S13">
-        <v>0.00577404075348169</v>
+        <v>0.009433147921325625</v>
       </c>
       <c r="T13">
-        <v>0.00577404075348169</v>
+        <v>0.009433147921325623</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>430.5572513333333</v>
+        <v>285.5083163333333</v>
       </c>
       <c r="H14">
-        <v>1291.671754</v>
+        <v>856.524949</v>
       </c>
       <c r="I14">
-        <v>0.4254974503877027</v>
+        <v>0.2841204194323592</v>
       </c>
       <c r="J14">
-        <v>0.4254974503877028</v>
+        <v>0.2841204194323592</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.502378</v>
+        <v>1.837384</v>
       </c>
       <c r="N14">
-        <v>1.507134</v>
+        <v>5.512152</v>
       </c>
       <c r="O14">
-        <v>0.0189742916423209</v>
+        <v>0.0635335947613339</v>
       </c>
       <c r="P14">
-        <v>0.0189742916423209</v>
+        <v>0.0635335947613339</v>
       </c>
       <c r="Q14">
-        <v>216.3024908103373</v>
+        <v>524.5884122978053</v>
       </c>
       <c r="R14">
-        <v>1946.722417293036</v>
+        <v>4721.295710680249</v>
       </c>
       <c r="S14">
-        <v>0.00807351271672024</v>
+        <v>0.01805119159163572</v>
       </c>
       <c r="T14">
-        <v>0.008073512716720242</v>
+        <v>0.01805119159163572</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>430.5572513333333</v>
+        <v>285.5083163333333</v>
       </c>
       <c r="H15">
-        <v>1291.671754</v>
+        <v>856.524949</v>
       </c>
       <c r="I15">
-        <v>0.4254974503877027</v>
+        <v>0.2841204194323592</v>
       </c>
       <c r="J15">
-        <v>0.4254974503877028</v>
+        <v>0.2841204194323592</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.807088</v>
       </c>
       <c r="O15">
-        <v>0.02275060793223323</v>
+        <v>0.02082867030699976</v>
       </c>
       <c r="P15">
-        <v>0.02275060793223323</v>
+        <v>0.02082867030699976</v>
       </c>
       <c r="Q15">
-        <v>259.3516140658169</v>
+        <v>171.9795507820569</v>
       </c>
       <c r="R15">
-        <v>2334.164526592352</v>
+        <v>1547.815957038512</v>
       </c>
       <c r="S15">
-        <v>0.009680325669935484</v>
+        <v>0.005917850543843097</v>
       </c>
       <c r="T15">
-        <v>0.009680325669935484</v>
+        <v>0.005917850543843097</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>430.5572513333333</v>
+        <v>285.5083163333333</v>
       </c>
       <c r="H16">
-        <v>1291.671754</v>
+        <v>856.524949</v>
       </c>
       <c r="I16">
-        <v>0.4254974503877027</v>
+        <v>0.2841204194323592</v>
       </c>
       <c r="J16">
-        <v>0.4254974503877028</v>
+        <v>0.2841204194323592</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.474800666666667</v>
+        <v>5.528959666666668</v>
       </c>
       <c r="N16">
-        <v>16.424402</v>
+        <v>16.586879</v>
       </c>
       <c r="O16">
-        <v>0.2067774952981744</v>
+        <v>0.1911819646376369</v>
       </c>
       <c r="P16">
-        <v>0.2067774952981744</v>
+        <v>0.1911819646376369</v>
       </c>
       <c r="Q16">
-        <v>2357.215126637901</v>
+        <v>1578.563965504908</v>
       </c>
       <c r="R16">
-        <v>21214.93613974111</v>
+        <v>14207.07568954417</v>
       </c>
       <c r="S16">
-        <v>0.08798329704692838</v>
+        <v>0.05431869998074785</v>
       </c>
       <c r="T16">
-        <v>0.08798329704692839</v>
+        <v>0.05431869998074785</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>430.5572513333333</v>
+        <v>285.5083163333333</v>
       </c>
       <c r="H17">
-        <v>1291.671754</v>
+        <v>856.524949</v>
       </c>
       <c r="I17">
-        <v>0.4254974503877027</v>
+        <v>0.2841204194323592</v>
       </c>
       <c r="J17">
-        <v>0.4254974503877028</v>
+        <v>0.2841204194323592</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.461044333333334</v>
+        <v>3.046454666666667</v>
       </c>
       <c r="N17">
-        <v>22.383133</v>
+        <v>9.139364</v>
       </c>
       <c r="O17">
-        <v>0.281795841252906</v>
+        <v>0.1053411895666744</v>
       </c>
       <c r="P17">
-        <v>0.281795841252906</v>
+        <v>0.1053411895666744</v>
       </c>
       <c r="Q17">
-        <v>3212.406740236142</v>
+        <v>869.7881426658263</v>
       </c>
       <c r="R17">
-        <v>28911.66066212528</v>
+        <v>7828.093283992436</v>
       </c>
       <c r="S17">
-        <v>0.1199034119829693</v>
+        <v>0.0299295829631872</v>
       </c>
       <c r="T17">
-        <v>0.1199034119829693</v>
+        <v>0.0299295829631872</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>430.5572513333333</v>
+        <v>285.5083163333333</v>
       </c>
       <c r="H18">
-        <v>1291.671754</v>
+        <v>856.524949</v>
       </c>
       <c r="I18">
-        <v>0.4254974503877027</v>
+        <v>0.2841204194323592</v>
       </c>
       <c r="J18">
-        <v>0.4254974503877028</v>
+        <v>0.2841204194323592</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.423250333333333</v>
+        <v>9.021246333333332</v>
       </c>
       <c r="N18">
-        <v>22.269751</v>
+        <v>27.063739</v>
       </c>
       <c r="O18">
-        <v>0.2803684014001858</v>
+        <v>0.3119392618985303</v>
       </c>
       <c r="P18">
-        <v>0.2803684014001858</v>
+        <v>0.3119392618985303</v>
       </c>
       <c r="Q18">
-        <v>3196.13425947925</v>
+        <v>2575.640851858256</v>
       </c>
       <c r="R18">
-        <v>28765.20833531325</v>
+        <v>23180.76766672431</v>
       </c>
       <c r="S18">
-        <v>0.1192960399650551</v>
+        <v>0.08862831392803097</v>
       </c>
       <c r="T18">
-        <v>0.1192960399650551</v>
+        <v>0.08862831392803097</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>430.5572513333333</v>
+        <v>285.5083163333333</v>
       </c>
       <c r="H19">
-        <v>1291.671754</v>
+        <v>856.524949</v>
       </c>
       <c r="I19">
-        <v>0.4254974503877027</v>
+        <v>0.2841204194323592</v>
       </c>
       <c r="J19">
-        <v>0.4254974503877028</v>
+        <v>0.2841204194323592</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.012936333333333</v>
+        <v>8.883473666666667</v>
       </c>
       <c r="N19">
-        <v>15.038809</v>
+        <v>26.650421</v>
       </c>
       <c r="O19">
-        <v>0.1893333624741797</v>
+        <v>0.3071753188288246</v>
       </c>
       <c r="P19">
-        <v>0.1893333624741797</v>
+        <v>0.3071753188288246</v>
       </c>
       <c r="Q19">
-        <v>2158.356088788998</v>
+        <v>2536.305609761503</v>
       </c>
       <c r="R19">
-        <v>19425.20479910098</v>
+        <v>22826.75048785353</v>
       </c>
       <c r="S19">
-        <v>0.08056086300609422</v>
+        <v>0.08727478042491429</v>
       </c>
       <c r="T19">
-        <v>0.08056086300609422</v>
+        <v>0.08727478042491429</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.56985766666667</v>
+        <v>6.114891</v>
       </c>
       <c r="H20">
-        <v>37.709573</v>
+        <v>18.344673</v>
       </c>
       <c r="I20">
-        <v>0.01242213984862671</v>
+        <v>0.0060851656372586</v>
       </c>
       <c r="J20">
-        <v>0.01242213984862671</v>
+        <v>0.006085165637258599</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.502378</v>
+        <v>1.837384</v>
       </c>
       <c r="N20">
-        <v>1.507134</v>
+        <v>5.512152</v>
       </c>
       <c r="O20">
-        <v>0.0189742916423209</v>
+        <v>0.0635335947613339</v>
       </c>
       <c r="P20">
-        <v>0.0189742916423209</v>
+        <v>0.0635335947613339</v>
       </c>
       <c r="Q20">
-        <v>6.314819954864666</v>
+        <v>11.235402885144</v>
       </c>
       <c r="R20">
-        <v>56.833379593782</v>
+        <v>101.118625966296</v>
       </c>
       <c r="S20">
-        <v>0.0002357013043095391</v>
+        <v>0.000386612447653182</v>
       </c>
       <c r="T20">
-        <v>0.0002357013043095392</v>
+        <v>0.000386612447653182</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.56985766666667</v>
+        <v>6.114891</v>
       </c>
       <c r="H21">
-        <v>37.709573</v>
+        <v>18.344673</v>
       </c>
       <c r="I21">
-        <v>0.01242213984862671</v>
+        <v>0.0060851656372586</v>
       </c>
       <c r="J21">
-        <v>0.01242213984862671</v>
+        <v>0.006085165637258599</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.807088</v>
       </c>
       <c r="O21">
-        <v>0.02275060793223323</v>
+        <v>0.02082867030699976</v>
       </c>
       <c r="P21">
-        <v>0.02275060793223323</v>
+        <v>0.02082867030699976</v>
       </c>
       <c r="Q21">
-        <v>7.571612983713776</v>
+        <v>3.683382049136</v>
       </c>
       <c r="R21">
-        <v>68.14451685342399</v>
+        <v>33.15043844222399</v>
       </c>
       <c r="S21">
-        <v>0.0002826112333754772</v>
+        <v>0.0001267459088219435</v>
       </c>
       <c r="T21">
-        <v>0.0002826112333754772</v>
+        <v>0.0001267459088219434</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>12.56985766666667</v>
+        <v>6.114891</v>
       </c>
       <c r="H22">
-        <v>37.709573</v>
+        <v>18.344673</v>
       </c>
       <c r="I22">
-        <v>0.01242213984862671</v>
+        <v>0.0060851656372586</v>
       </c>
       <c r="J22">
-        <v>0.01242213984862671</v>
+        <v>0.006085165637258599</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.474800666666667</v>
+        <v>5.528959666666668</v>
       </c>
       <c r="N22">
-        <v>16.424402</v>
+        <v>16.586879</v>
       </c>
       <c r="O22">
-        <v>0.2067774952981744</v>
+        <v>0.1911819646376369</v>
       </c>
       <c r="P22">
-        <v>0.2067774952981744</v>
+        <v>0.1911819646376369</v>
       </c>
       <c r="Q22">
-        <v>68.81746513337177</v>
+        <v>33.80898570506301</v>
       </c>
       <c r="R22">
-        <v>619.357186200346</v>
+        <v>304.280871345567</v>
       </c>
       <c r="S22">
-        <v>0.002568618964142673</v>
+        <v>0.001163373921676537</v>
       </c>
       <c r="T22">
-        <v>0.002568618964142674</v>
+        <v>0.001163373921676537</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>12.56985766666667</v>
+        <v>6.114891</v>
       </c>
       <c r="H23">
-        <v>37.709573</v>
+        <v>18.344673</v>
       </c>
       <c r="I23">
-        <v>0.01242213984862671</v>
+        <v>0.0060851656372586</v>
       </c>
       <c r="J23">
-        <v>0.01242213984862671</v>
+        <v>0.006085165637258599</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>7.461044333333334</v>
+        <v>3.046454666666667</v>
       </c>
       <c r="N23">
-        <v>22.383133</v>
+        <v>9.139364</v>
       </c>
       <c r="O23">
-        <v>0.281795841252906</v>
+        <v>0.1053411895666744</v>
       </c>
       <c r="P23">
-        <v>0.281795841252906</v>
+        <v>0.1053411895666744</v>
       </c>
       <c r="Q23">
-        <v>93.78426531468989</v>
+        <v>18.628738223108</v>
       </c>
       <c r="R23">
-        <v>844.058387832209</v>
+        <v>167.658644007972</v>
       </c>
       <c r="S23">
-        <v>0.003500507348805009</v>
+        <v>0.0006410185869390715</v>
       </c>
       <c r="T23">
-        <v>0.003500507348805009</v>
+        <v>0.0006410185869390714</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>12.56985766666667</v>
+        <v>6.114891</v>
       </c>
       <c r="H24">
-        <v>37.709573</v>
+        <v>18.344673</v>
       </c>
       <c r="I24">
-        <v>0.01242213984862671</v>
+        <v>0.0060851656372586</v>
       </c>
       <c r="J24">
-        <v>0.01242213984862671</v>
+        <v>0.006085165637258599</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.423250333333333</v>
+        <v>9.021246333333332</v>
       </c>
       <c r="N24">
-        <v>22.269751</v>
+        <v>27.063739</v>
       </c>
       <c r="O24">
-        <v>0.2803684014001858</v>
+        <v>0.3119392618985303</v>
       </c>
       <c r="P24">
-        <v>0.2803684014001858</v>
+        <v>0.3119392618985303</v>
       </c>
       <c r="Q24">
-        <v>93.30920011403587</v>
+        <v>55.16393801248299</v>
       </c>
       <c r="R24">
-        <v>839.782801026323</v>
+        <v>496.475442112347</v>
       </c>
       <c r="S24">
-        <v>0.003482775491329015</v>
+        <v>0.001898202077416748</v>
       </c>
       <c r="T24">
-        <v>0.003482775491329016</v>
+        <v>0.001898202077416747</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>12.56985766666667</v>
+        <v>6.114891</v>
       </c>
       <c r="H25">
-        <v>37.709573</v>
+        <v>18.344673</v>
       </c>
       <c r="I25">
-        <v>0.01242213984862671</v>
+        <v>0.0060851656372586</v>
       </c>
       <c r="J25">
-        <v>0.01242213984862671</v>
+        <v>0.006085165637258599</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.012936333333333</v>
+        <v>8.883473666666667</v>
       </c>
       <c r="N25">
-        <v>15.038809</v>
+        <v>26.650421</v>
       </c>
       <c r="O25">
-        <v>0.1893333624741797</v>
+        <v>0.3071753188288246</v>
       </c>
       <c r="P25">
-        <v>0.1893333624741797</v>
+        <v>0.3071753188288246</v>
       </c>
       <c r="Q25">
-        <v>63.01189620206188</v>
+        <v>54.32147317303701</v>
       </c>
       <c r="R25">
-        <v>567.107065818557</v>
+        <v>488.893258557333</v>
       </c>
       <c r="S25">
-        <v>0.002351925506664992</v>
+        <v>0.001869212694751118</v>
       </c>
       <c r="T25">
-        <v>0.002351925506664992</v>
+        <v>0.001869212694751118</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>145.447436</v>
+        <v>121.4054183333333</v>
       </c>
       <c r="H26">
-        <v>436.342308</v>
+        <v>364.216255</v>
       </c>
       <c r="I26">
-        <v>0.1437381741726046</v>
+        <v>0.1208152491710817</v>
       </c>
       <c r="J26">
-        <v>0.1437381741726046</v>
+        <v>0.1208152491710817</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.502378</v>
+        <v>1.837384</v>
       </c>
       <c r="N26">
-        <v>1.507134</v>
+        <v>5.512152</v>
       </c>
       <c r="O26">
-        <v>0.0189742916423209</v>
+        <v>0.0635335947613339</v>
       </c>
       <c r="P26">
-        <v>0.0189742916423209</v>
+        <v>0.0635335947613339</v>
       </c>
       <c r="Q26">
-        <v>73.06959200280801</v>
+        <v>223.0683731589733</v>
       </c>
       <c r="R26">
-        <v>657.626328025272</v>
+        <v>2007.61535843076</v>
       </c>
       <c r="S26">
-        <v>0.002727330036885718</v>
+        <v>0.007675827081825089</v>
       </c>
       <c r="T26">
-        <v>0.002727330036885718</v>
+        <v>0.007675827081825088</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>145.447436</v>
+        <v>121.4054183333333</v>
       </c>
       <c r="H27">
-        <v>436.342308</v>
+        <v>364.216255</v>
       </c>
       <c r="I27">
-        <v>0.1437381741726046</v>
+        <v>0.1208152491710817</v>
       </c>
       <c r="J27">
-        <v>0.1437381741726046</v>
+        <v>0.1208152491710817</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.807088</v>
       </c>
       <c r="O27">
-        <v>0.02275060793223323</v>
+        <v>0.02082867030699976</v>
       </c>
       <c r="P27">
-        <v>0.02275060793223323</v>
+        <v>0.02082867030699976</v>
       </c>
       <c r="Q27">
-        <v>87.61210540878933</v>
+        <v>73.13009153504888</v>
       </c>
       <c r="R27">
-        <v>788.5089486791039</v>
+        <v>658.1708238154399</v>
       </c>
       <c r="S27">
-        <v>0.00327013084549598</v>
+        <v>0.002516420993042488</v>
       </c>
       <c r="T27">
-        <v>0.00327013084549598</v>
+        <v>0.002516420993042487</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>145.447436</v>
+        <v>121.4054183333333</v>
       </c>
       <c r="H28">
-        <v>436.342308</v>
+        <v>364.216255</v>
       </c>
       <c r="I28">
-        <v>0.1437381741726046</v>
+        <v>0.1208152491710817</v>
       </c>
       <c r="J28">
-        <v>0.1437381741726046</v>
+        <v>0.1208152491710817</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.474800666666667</v>
+        <v>5.528959666666668</v>
       </c>
       <c r="N28">
-        <v>16.424402</v>
+        <v>16.586879</v>
       </c>
       <c r="O28">
-        <v>0.2067774952981744</v>
+        <v>0.1911819646376369</v>
       </c>
       <c r="P28">
-        <v>0.2067774952981744</v>
+        <v>0.1911819646376369</v>
       </c>
       <c r="Q28">
-        <v>796.2957195777574</v>
+        <v>671.245661279794</v>
       </c>
       <c r="R28">
-        <v>7166.661476199816</v>
+        <v>6041.210951518146</v>
       </c>
       <c r="S28">
-        <v>0.02972181963414392</v>
+        <v>0.02309769669471304</v>
       </c>
       <c r="T28">
-        <v>0.02972181963414392</v>
+        <v>0.02309769669471304</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>145.447436</v>
+        <v>121.4054183333333</v>
       </c>
       <c r="H29">
-        <v>436.342308</v>
+        <v>364.216255</v>
       </c>
       <c r="I29">
-        <v>0.1437381741726046</v>
+        <v>0.1208152491710817</v>
       </c>
       <c r="J29">
-        <v>0.1437381741726046</v>
+        <v>0.1208152491710817</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>7.461044333333334</v>
+        <v>3.046454666666667</v>
       </c>
       <c r="N29">
-        <v>22.383133</v>
+        <v>9.139364</v>
       </c>
       <c r="O29">
-        <v>0.281795841252906</v>
+        <v>0.1053411895666744</v>
       </c>
       <c r="P29">
-        <v>0.281795841252906</v>
+        <v>0.1053411895666744</v>
       </c>
       <c r="Q29">
-        <v>1085.189768165663</v>
+        <v>369.8561032402022</v>
       </c>
       <c r="R29">
-        <v>9766.707913490964</v>
+        <v>3328.70492916182</v>
       </c>
       <c r="S29">
-        <v>0.04050481971112585</v>
+        <v>0.01272682206547593</v>
       </c>
       <c r="T29">
-        <v>0.04050481971112584</v>
+        <v>0.01272682206547593</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>145.447436</v>
+        <v>121.4054183333333</v>
       </c>
       <c r="H30">
-        <v>436.342308</v>
+        <v>364.216255</v>
       </c>
       <c r="I30">
-        <v>0.1437381741726046</v>
+        <v>0.1208152491710817</v>
       </c>
       <c r="J30">
-        <v>0.1437381741726046</v>
+        <v>0.1208152491710817</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>7.423250333333333</v>
+        <v>9.021246333333332</v>
       </c>
       <c r="N30">
-        <v>22.269751</v>
+        <v>27.063739</v>
       </c>
       <c r="O30">
-        <v>0.2803684014001858</v>
+        <v>0.3119392618985303</v>
       </c>
       <c r="P30">
-        <v>0.2803684014001858</v>
+        <v>0.3119392618985303</v>
       </c>
       <c r="Q30">
-        <v>1079.692727769479</v>
+        <v>1095.228184986383</v>
       </c>
       <c r="R30">
-        <v>9717.234549925308</v>
+        <v>9857.053664877443</v>
       </c>
       <c r="S30">
-        <v>0.04029964211295463</v>
+        <v>0.03768701965251427</v>
       </c>
       <c r="T30">
-        <v>0.04029964211295463</v>
+        <v>0.03768701965251426</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>145.447436</v>
+        <v>121.4054183333333</v>
       </c>
       <c r="H31">
-        <v>436.342308</v>
+        <v>364.216255</v>
       </c>
       <c r="I31">
-        <v>0.1437381741726046</v>
+        <v>0.1208152491710817</v>
       </c>
       <c r="J31">
-        <v>0.1437381741726046</v>
+        <v>0.1208152491710817</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>5.012936333333333</v>
+        <v>8.883473666666667</v>
       </c>
       <c r="N31">
-        <v>15.038809</v>
+        <v>26.650421</v>
       </c>
       <c r="O31">
-        <v>0.1893333624741797</v>
+        <v>0.3071753188288246</v>
       </c>
       <c r="P31">
-        <v>0.1893333624741797</v>
+        <v>0.3071753188288246</v>
       </c>
       <c r="Q31">
-        <v>729.1187365145747</v>
+        <v>1078.501836754817</v>
       </c>
       <c r="R31">
-        <v>6562.068628631171</v>
+        <v>9706.516530793355</v>
       </c>
       <c r="S31">
-        <v>0.02721443183199853</v>
+        <v>0.03711146268351092</v>
       </c>
       <c r="T31">
-        <v>0.02721443183199853</v>
+        <v>0.03711146268351092</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>371.6201173333334</v>
+        <v>526.157359</v>
       </c>
       <c r="H32">
-        <v>1114.860352</v>
+        <v>1578.472077</v>
       </c>
       <c r="I32">
-        <v>0.3672529308203304</v>
+        <v>0.5235996325654108</v>
       </c>
       <c r="J32">
-        <v>0.3672529308203304</v>
+        <v>0.5235996325654108</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.502378</v>
+        <v>1.837384</v>
       </c>
       <c r="N32">
-        <v>1.507134</v>
+        <v>5.512152</v>
       </c>
       <c r="O32">
-        <v>0.0189742916423209</v>
+        <v>0.0635335947613339</v>
       </c>
       <c r="P32">
-        <v>0.0189742916423209</v>
+        <v>0.0635335947613339</v>
       </c>
       <c r="Q32">
-        <v>186.6937713056853</v>
+        <v>966.7531129088561</v>
       </c>
       <c r="R32">
-        <v>1680.243941751168</v>
+        <v>8700.778016179705</v>
       </c>
       <c r="S32">
-        <v>0.006968364215882051</v>
+        <v>0.03326616687259414</v>
       </c>
       <c r="T32">
-        <v>0.006968364215882052</v>
+        <v>0.03326616687259414</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>371.6201173333334</v>
+        <v>526.157359</v>
       </c>
       <c r="H33">
-        <v>1114.860352</v>
+        <v>1578.472077</v>
       </c>
       <c r="I33">
-        <v>0.3672529308203304</v>
+        <v>0.5235996325654108</v>
       </c>
       <c r="J33">
-        <v>0.3672529308203304</v>
+        <v>0.5235996325654108</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>1.807088</v>
       </c>
       <c r="O33">
-        <v>0.02275060793223323</v>
+        <v>0.02082867030699976</v>
       </c>
       <c r="P33">
-        <v>0.02275060793223323</v>
+        <v>0.02082867030699976</v>
       </c>
       <c r="Q33">
-        <v>223.8500848638862</v>
+        <v>316.9375498535306</v>
       </c>
       <c r="R33">
-        <v>2014.650763774976</v>
+        <v>2852.437948681776</v>
       </c>
       <c r="S33">
-        <v>0.00835522744105691</v>
+        <v>0.01090588411957115</v>
       </c>
       <c r="T33">
-        <v>0.008355227441056911</v>
+        <v>0.01090588411957115</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>371.6201173333334</v>
+        <v>526.157359</v>
       </c>
       <c r="H34">
-        <v>1114.860352</v>
+        <v>1578.472077</v>
       </c>
       <c r="I34">
-        <v>0.3672529308203304</v>
+        <v>0.5235996325654108</v>
       </c>
       <c r="J34">
-        <v>0.3672529308203304</v>
+        <v>0.5235996325654108</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>5.474800666666667</v>
+        <v>5.528959666666668</v>
       </c>
       <c r="N34">
-        <v>16.424402</v>
+        <v>16.586879</v>
       </c>
       <c r="O34">
-        <v>0.2067774952981744</v>
+        <v>0.1911819646376369</v>
       </c>
       <c r="P34">
-        <v>0.2067774952981744</v>
+        <v>0.1911819646376369</v>
       </c>
       <c r="Q34">
-        <v>2034.546066123278</v>
+        <v>2909.102816230855</v>
       </c>
       <c r="R34">
-        <v>18310.91459510951</v>
+        <v>26181.92534607769</v>
       </c>
       <c r="S34">
-        <v>0.07593964117594162</v>
+        <v>0.1001028064374</v>
       </c>
       <c r="T34">
-        <v>0.07593964117594164</v>
+        <v>0.1001028064374</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>371.6201173333334</v>
+        <v>526.157359</v>
       </c>
       <c r="H35">
-        <v>1114.860352</v>
+        <v>1578.472077</v>
       </c>
       <c r="I35">
-        <v>0.3672529308203304</v>
+        <v>0.5235996325654108</v>
       </c>
       <c r="J35">
-        <v>0.3672529308203304</v>
+        <v>0.5235996325654108</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>7.461044333333334</v>
+        <v>3.046454666666667</v>
       </c>
       <c r="N35">
-        <v>22.383133</v>
+        <v>9.139364</v>
       </c>
       <c r="O35">
-        <v>0.281795841252906</v>
+        <v>0.1053411895666744</v>
       </c>
       <c r="P35">
-        <v>0.281795841252906</v>
+        <v>0.1053411895666744</v>
       </c>
       <c r="Q35">
-        <v>2772.674170582536</v>
+        <v>1602.914541726559</v>
       </c>
       <c r="R35">
-        <v>24954.06753524282</v>
+        <v>14426.23087553903</v>
       </c>
       <c r="S35">
-        <v>0.1034903485931103</v>
+        <v>0.05515660815111402</v>
       </c>
       <c r="T35">
-        <v>0.1034903485931103</v>
+        <v>0.05515660815111402</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>371.6201173333334</v>
+        <v>526.157359</v>
       </c>
       <c r="H36">
-        <v>1114.860352</v>
+        <v>1578.472077</v>
       </c>
       <c r="I36">
-        <v>0.3672529308203304</v>
+        <v>0.5235996325654108</v>
       </c>
       <c r="J36">
-        <v>0.3672529308203304</v>
+        <v>0.5235996325654108</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>7.423250333333333</v>
+        <v>9.021246333333332</v>
       </c>
       <c r="N36">
-        <v>22.269751</v>
+        <v>27.063739</v>
       </c>
       <c r="O36">
-        <v>0.2803684014001858</v>
+        <v>0.3119392618985303</v>
       </c>
       <c r="P36">
-        <v>0.2803684014001858</v>
+        <v>0.3119392618985303</v>
       </c>
       <c r="Q36">
-        <v>2758.629159868039</v>
+        <v>4746.5951456351</v>
       </c>
       <c r="R36">
-        <v>24827.66243881236</v>
+        <v>42719.35631071591</v>
       </c>
       <c r="S36">
-        <v>0.102966117123629</v>
+        <v>0.1633312829127959</v>
       </c>
       <c r="T36">
-        <v>0.1029661171236291</v>
+        <v>0.1633312829127959</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>371.6201173333334</v>
+        <v>526.157359</v>
       </c>
       <c r="H37">
-        <v>1114.860352</v>
+        <v>1578.472077</v>
       </c>
       <c r="I37">
-        <v>0.3672529308203304</v>
+        <v>0.5235996325654108</v>
       </c>
       <c r="J37">
-        <v>0.3672529308203304</v>
+        <v>0.5235996325654108</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>5.012936333333333</v>
+        <v>8.883473666666667</v>
       </c>
       <c r="N37">
-        <v>15.038809</v>
+        <v>26.650421</v>
       </c>
       <c r="O37">
-        <v>0.1893333624741797</v>
+        <v>0.3071753188288246</v>
       </c>
       <c r="P37">
-        <v>0.1893333624741797</v>
+        <v>0.3071753188288246</v>
       </c>
       <c r="Q37">
-        <v>1862.907988377863</v>
+        <v>4674.10504319938</v>
       </c>
       <c r="R37">
-        <v>16766.17189540077</v>
+        <v>42066.94538879443</v>
       </c>
       <c r="S37">
-        <v>0.06953323227071047</v>
+        <v>0.1608368840719355</v>
       </c>
       <c r="T37">
-        <v>0.06953323227071047</v>
+        <v>0.1608368840719355</v>
       </c>
     </row>
   </sheetData>
